--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.783675135704809E-08</v>
+        <v>0.9999917431614516</v>
       </c>
       <c r="E2">
-        <v>4.783675135704809E-08</v>
+        <v>0.9999917431614516</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9539058286687143</v>
+        <v>0.006985664340243368</v>
       </c>
       <c r="E4">
-        <v>0.9539058286687143</v>
+        <v>0.006985664340243368</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.874612789398324E-08</v>
+        <v>8.410612112418685E-06</v>
       </c>
       <c r="E5">
-        <v>1.874612789398324E-08</v>
+        <v>8.410612112418685E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.362590373845591E-06</v>
+        <v>1.07109936256667E-05</v>
       </c>
       <c r="E6">
-        <v>5.362590373845591E-06</v>
+        <v>1.07109936256667E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9990991014636692</v>
+        <v>0.9998826443948218</v>
       </c>
       <c r="E8">
-        <v>0.0009008985363307964</v>
+        <v>0.0001173556051782265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.828069608873024E-27</v>
+        <v>8.306214752864594E-16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9977891937309578</v>
+        <v>6.274378813596615E-08</v>
       </c>
       <c r="E11">
-        <v>0.002210806269042243</v>
+        <v>0.9999999372562118</v>
       </c>
       <c r="F11">
-        <v>179.8648986816406</v>
+        <v>230.6071472167969</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
